--- a/admin/report/同事统计2016-08-01至2016-08-31-曹琦敏.xlsx
+++ b/admin/report/同事统计2016-08-01至2016-08-31-曹琦敏.xlsx
@@ -468,7 +468,7 @@
         <v>2016-08-11</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -705,7 +705,7 @@
         <v>177</v>
       </c>
       <c r="D42" t="str">
-        <v>87.84%</v>
+        <v>86.13%</v>
       </c>
     </row>
     <row r="43">
@@ -716,7 +716,7 @@
         <v>10.5</v>
       </c>
       <c r="D43" t="str">
-        <v>5.21%</v>
+        <v>5.11%</v>
       </c>
     </row>
     <row r="44">
@@ -724,10 +724,10 @@
         <v>其它</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" t="str">
-        <v>6.95%</v>
+        <v>8.76%</v>
       </c>
     </row>
   </sheetData>
